--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T08:14:22+00:00</t>
+    <t>2025-12-08T10:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T10:44:14+00:00</t>
+    <t>2025-12-09T14:31:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T14:31:34+00:00</t>
+    <t>2025-12-10T14:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T14:01:43+00:00</t>
+    <t>2025-12-17T14:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:30:25+00:00</t>
+    <t>2026-01-07T10:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T10:12:30+00:00</t>
+    <t>2026-01-09T09:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:05:42+00:00</t>
+    <t>2026-01-15T09:18:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T09:18:10+00:00</t>
+    <t>2026-01-15T13:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tde/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:06:26+00:00</t>
+    <t>2026-01-15T15:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ANS-170-ST/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:23:39+00:00</t>
+    <t>2026-01-16T14:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
